--- a/ehmp/product/tests/data_load_scripts/loader_template.xlsx
+++ b/ehmp/product/tests/data_load_scripts/loader_template.xlsx
@@ -20336,7 +20336,7 @@
     <t>C&amp;P ARRHYTHMIAS - 1297</t>
   </si>
   <si>
-    <t>C&amp;P ARTERIES, VEINS AND MISC - 1298</t>
+    <t>C&amp;P ARTERIES, VEINS AND MDSN S  298</t>
   </si>
   <si>
     <t>C&amp;P AUDIO - 1299</t>
@@ -21038,7 +21038,7 @@
     <t>INTRAVENOUS INTRAMUSCULAR SUBCUTANEOUS - 63</t>
   </si>
   <si>
-    <t>INTRAVENOUS INH MISC - 64</t>
+    <t>INTRAVENOUS INH MDSN S  4</t>
   </si>
   <si>
     <t>INTRAVENOUS MISCELLANEOUS - 65</t>
@@ -21152,7 +21152,7 @@
     <t>TOPICAL DENTAL - 101</t>
   </si>
   <si>
-    <t>TOPICAL INFILTRATION MISC - 102</t>
+    <t>TOPICAL INFILTRATION MDSN S  02</t>
   </si>
   <si>
     <t>TOPICAL MISCELLANEOUS - 103</t>
@@ -21263,7 +21263,7 @@
     <t>INTRAMUSCULAR INTRASYNOVIAL - 138</t>
   </si>
   <si>
-    <t>INTRAMUSCULAR INTRASYNOVIAL MISC - 139</t>
+    <t>INTRAMUSCULAR INTRASYNOVIAL MDSN S  39</t>
   </si>
   <si>
     <t>INTRAMUSCULAR INTRASYNOVIAL SUBCUTANEOUS - 140</t>
@@ -21293,7 +21293,7 @@
     <t>INTRAMUSCULAR SUBCUTANEOUS INTRAVENOUS - 148</t>
   </si>
   <si>
-    <t>INTRAMUSCULAR SUBCUTANEOUS MISC - 149</t>
+    <t>INTRAMUSCULAR SUBCUTANEOUS MDSN S  49</t>
   </si>
   <si>
     <t>INHALATION NASAL - 150</t>
